--- a/Code/Results/Cases/Case_1_96/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_96/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9336978009428505</v>
+        <v>1.008199406363829</v>
       </c>
       <c r="D2">
-        <v>1.028511507186289</v>
+        <v>1.028405560243696</v>
       </c>
       <c r="E2">
-        <v>0.9487320670534544</v>
+        <v>1.010736026748353</v>
       </c>
       <c r="F2">
-        <v>0.9529976098013149</v>
+        <v>1.022458468557891</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047069076518258</v>
+        <v>1.030470695751452</v>
       </c>
       <c r="J2">
-        <v>0.9580601352033359</v>
+        <v>1.013466621627579</v>
       </c>
       <c r="K2">
-        <v>1.039587423170598</v>
+        <v>1.031222471817723</v>
       </c>
       <c r="L2">
-        <v>0.9609550737394301</v>
+        <v>1.013605317779909</v>
       </c>
       <c r="M2">
-        <v>0.9651530687273806</v>
+        <v>1.025292789681212</v>
       </c>
       <c r="N2">
-        <v>0.9889688948810479</v>
+        <v>1.00846097436131</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9433613676909192</v>
+        <v>1.009980992467433</v>
       </c>
       <c r="D3">
-        <v>1.031448464432052</v>
+        <v>1.028888867513922</v>
       </c>
       <c r="E3">
-        <v>0.9567763714057849</v>
+        <v>1.012272231573513</v>
       </c>
       <c r="F3">
-        <v>0.9633173035729765</v>
+        <v>1.024316379258391</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048630313860507</v>
+        <v>1.030615051617936</v>
       </c>
       <c r="J3">
-        <v>0.9655249002301467</v>
+        <v>1.01487556979671</v>
       </c>
       <c r="K3">
-        <v>1.041694167804468</v>
+        <v>1.031514583961475</v>
       </c>
       <c r="L3">
-        <v>0.9679939038291783</v>
+        <v>1.014943613307908</v>
       </c>
       <c r="M3">
-        <v>0.9744421073743106</v>
+        <v>1.026954501674668</v>
       </c>
       <c r="N3">
-        <v>0.991610434830872</v>
+        <v>1.008944619702715</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9493616296749483</v>
+        <v>1.011130102647602</v>
       </c>
       <c r="D4">
-        <v>1.033279822943457</v>
+        <v>1.029198749604333</v>
       </c>
       <c r="E4">
-        <v>0.9617802416752983</v>
+        <v>1.013263261496633</v>
       </c>
       <c r="F4">
-        <v>0.9697119218956677</v>
+        <v>1.025511196988755</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049580597156196</v>
+        <v>1.030704755590867</v>
       </c>
       <c r="J4">
-        <v>0.970155783424712</v>
+        <v>1.015783417638934</v>
       </c>
       <c r="K4">
-        <v>1.042992519874209</v>
+        <v>1.031700036525147</v>
       </c>
       <c r="L4">
-        <v>0.9723629351468261</v>
+        <v>1.015806118417662</v>
       </c>
       <c r="M4">
-        <v>0.980190185831606</v>
+        <v>1.028021979428412</v>
       </c>
       <c r="N4">
-        <v>0.9932468950470764</v>
+        <v>1.009255767867436</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9518282762930861</v>
+        <v>1.011612322521877</v>
       </c>
       <c r="D5">
-        <v>1.034033872369273</v>
+        <v>1.02932834109454</v>
       </c>
       <c r="E5">
-        <v>0.9638392593912837</v>
+        <v>1.013679187650658</v>
       </c>
       <c r="F5">
-        <v>0.9723371724838091</v>
+        <v>1.026011750915302</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049966307150036</v>
+        <v>1.030741580538863</v>
       </c>
       <c r="J5">
-        <v>0.9720583871109996</v>
+        <v>1.016164173168042</v>
       </c>
       <c r="K5">
-        <v>1.043523432578682</v>
+        <v>1.031777147365479</v>
       </c>
       <c r="L5">
-        <v>0.9741585048847761</v>
+        <v>1.016167900484134</v>
       </c>
       <c r="M5">
-        <v>0.9825480274824964</v>
+        <v>1.028468905192911</v>
       </c>
       <c r="N5">
-        <v>0.9939186538704945</v>
+        <v>1.009386148030789</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9522392856226188</v>
+        <v>1.011693239110816</v>
       </c>
       <c r="D6">
-        <v>1.034159569272337</v>
+        <v>1.029350060007496</v>
       </c>
       <c r="E6">
-        <v>0.9641824580642913</v>
+        <v>1.013748982692664</v>
       </c>
       <c r="F6">
-        <v>0.972774392302156</v>
+        <v>1.026095694169603</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050030276084951</v>
+        <v>1.030747711620971</v>
       </c>
       <c r="J6">
-        <v>0.972375343498259</v>
+        <v>1.016228051123685</v>
       </c>
       <c r="K6">
-        <v>1.043611717097603</v>
+        <v>1.031790044559374</v>
       </c>
       <c r="L6">
-        <v>0.9744576620245879</v>
+        <v>1.016228597880755</v>
       </c>
       <c r="M6">
-        <v>0.9829405931492637</v>
+        <v>1.028543838448504</v>
       </c>
       <c r="N6">
-        <v>0.9940305273431782</v>
+        <v>1.009408014567595</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9493948029244964</v>
+        <v>1.011136549470888</v>
       </c>
       <c r="D7">
-        <v>1.033289960039659</v>
+        <v>1.029200483896222</v>
       </c>
       <c r="E7">
-        <v>0.9618079252283496</v>
+        <v>1.013268821863812</v>
       </c>
       <c r="F7">
-        <v>0.9697472425793694</v>
+        <v>1.025517892256369</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049585804518256</v>
+        <v>1.030705251131012</v>
       </c>
       <c r="J7">
-        <v>0.970181375550449</v>
+        <v>1.01578850884401</v>
       </c>
       <c r="K7">
-        <v>1.042999671799706</v>
+        <v>1.031701070237484</v>
       </c>
       <c r="L7">
-        <v>0.9723870854014903</v>
+        <v>1.015810955751498</v>
       </c>
       <c r="M7">
-        <v>0.9802219166974634</v>
+        <v>1.028027958487598</v>
       </c>
       <c r="N7">
-        <v>0.9932559333101264</v>
+        <v>1.009257511682621</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.937018953874438</v>
+        <v>1.008802278088652</v>
       </c>
       <c r="D8">
-        <v>1.029518793903781</v>
+        <v>1.028569485964282</v>
       </c>
       <c r="E8">
-        <v>0.9514946691884034</v>
+        <v>1.011255823903459</v>
       </c>
       <c r="F8">
-        <v>0.9565467842462169</v>
+        <v>1.023087896141609</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047609474290784</v>
+        <v>1.030520248513936</v>
       </c>
       <c r="J8">
-        <v>0.9606264041313924</v>
+        <v>1.013943585339947</v>
       </c>
       <c r="K8">
-        <v>1.040313225794272</v>
+        <v>1.031321930184477</v>
       </c>
       <c r="L8">
-        <v>0.9633743899312877</v>
+        <v>1.014058326019438</v>
       </c>
       <c r="M8">
-        <v>0.9683494043709869</v>
+        <v>1.025855989795965</v>
       </c>
       <c r="N8">
-        <v>0.9898774695082417</v>
+        <v>1.008624800890921</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9130310331825457</v>
+        <v>1.004659852234417</v>
       </c>
       <c r="D9">
-        <v>1.022309830452567</v>
+        <v>1.027435781528671</v>
       </c>
       <c r="E9">
-        <v>0.9315905986522421</v>
+        <v>1.007685041029768</v>
       </c>
       <c r="F9">
-        <v>0.9308727882023381</v>
+        <v>1.018748626990426</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043638625673358</v>
+        <v>1.030165872476062</v>
       </c>
       <c r="J9">
-        <v>0.9420785908708307</v>
+        <v>1.010662554869645</v>
       </c>
       <c r="K9">
-        <v>1.035051026832386</v>
+        <v>1.030626552345071</v>
       </c>
       <c r="L9">
-        <v>0.9459004836000199</v>
+        <v>1.010942839536329</v>
       </c>
       <c r="M9">
-        <v>0.94519668498882</v>
+        <v>1.021968527401275</v>
       </c>
       <c r="N9">
-        <v>0.9833026491293698</v>
+        <v>1.007495848148559</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.895157147554753</v>
+        <v>1.001877456530309</v>
       </c>
       <c r="D10">
-        <v>1.017067454856342</v>
+        <v>1.026665337858934</v>
       </c>
       <c r="E10">
-        <v>0.9168375446894699</v>
+        <v>1.005287694533441</v>
       </c>
       <c r="F10">
-        <v>0.9117171500504041</v>
+        <v>1.015816080579863</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040614301432974</v>
+        <v>1.029910520004136</v>
       </c>
       <c r="J10">
-        <v>0.9282506395328289</v>
+        <v>1.008454070290377</v>
       </c>
       <c r="K10">
-        <v>1.031135240440386</v>
+        <v>1.030144623004911</v>
       </c>
       <c r="L10">
-        <v>0.9328902871595316</v>
+        <v>1.008846737143951</v>
       </c>
       <c r="M10">
-        <v>0.927886973748923</v>
+        <v>1.019335378657959</v>
       </c>
       <c r="N10">
-        <v>0.9783930992608848</v>
+        <v>1.006733452815206</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8868489687927851</v>
+        <v>1.000667453607731</v>
       </c>
       <c r="D11">
-        <v>1.014677823618051</v>
+        <v>1.026328255826409</v>
       </c>
       <c r="E11">
-        <v>0.9100039249218748</v>
+        <v>1.004245414529502</v>
       </c>
       <c r="F11">
-        <v>0.902817029024406</v>
+        <v>1.014536573055618</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039201356714335</v>
+        <v>1.029795411600501</v>
       </c>
       <c r="J11">
-        <v>0.9218245813218451</v>
+        <v>1.007492549719182</v>
       </c>
       <c r="K11">
-        <v>1.029328146376749</v>
+        <v>1.029931588405758</v>
       </c>
       <c r="L11">
-        <v>0.9268490645331291</v>
+        <v>1.007934372454489</v>
       </c>
       <c r="M11">
-        <v>0.9198380568021278</v>
+        <v>1.018185112481438</v>
       </c>
       <c r="N11">
-        <v>0.976110712487418</v>
+        <v>1.006400939250378</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8836641012090503</v>
+        <v>1.000217199172281</v>
       </c>
       <c r="D12">
-        <v>1.01377053201931</v>
+        <v>1.026202526307366</v>
       </c>
       <c r="E12">
-        <v>0.90738848414387</v>
+        <v>1.003857613917235</v>
       </c>
       <c r="F12">
-        <v>0.8994068670913901</v>
+        <v>1.01405982696987</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038659500838081</v>
+        <v>1.029751972418833</v>
       </c>
       <c r="J12">
-        <v>0.9193617830008789</v>
+        <v>1.00713459377455</v>
       </c>
       <c r="K12">
-        <v>1.028638581664239</v>
+        <v>1.029851802908561</v>
       </c>
       <c r="L12">
-        <v>0.9245345575486685</v>
+        <v>1.007594750594229</v>
       </c>
       <c r="M12">
-        <v>0.9167532706169259</v>
+        <v>1.017756314669423</v>
       </c>
       <c r="N12">
-        <v>0.9752359630053939</v>
+        <v>1.006277063263189</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8843519885984041</v>
+        <v>1.000313817101804</v>
       </c>
       <c r="D13">
-        <v>1.013966070541653</v>
+        <v>1.026229519352788</v>
       </c>
       <c r="E13">
-        <v>0.9079531850786507</v>
+        <v>1.003940828241598</v>
       </c>
       <c r="F13">
-        <v>0.9001433229755265</v>
+        <v>1.014162157977488</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038776528604669</v>
+        <v>1.029761321183172</v>
       </c>
       <c r="J13">
-        <v>0.9198936810778902</v>
+        <v>1.007211413237316</v>
       </c>
       <c r="K13">
-        <v>1.028787353851684</v>
+        <v>1.029868946816384</v>
       </c>
       <c r="L13">
-        <v>0.9250343910947951</v>
+        <v>1.007667633901541</v>
       </c>
       <c r="M13">
-        <v>0.9174194897717411</v>
+        <v>1.017848363183346</v>
       </c>
       <c r="N13">
-        <v>0.9754248843395233</v>
+        <v>1.006303651732442</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8865878117162499</v>
+        <v>1.000630252002251</v>
       </c>
       <c r="D14">
-        <v>1.014603239037802</v>
+        <v>1.026317873640243</v>
       </c>
       <c r="E14">
-        <v>0.9097893726379068</v>
+        <v>1.004213372206165</v>
       </c>
       <c r="F14">
-        <v>0.9025373585110767</v>
+        <v>1.014497195404279</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039156923802152</v>
+        <v>1.029791834838225</v>
       </c>
       <c r="J14">
-        <v>0.9216226195714414</v>
+        <v>1.007462977485511</v>
       </c>
       <c r="K14">
-        <v>1.029271530897889</v>
+        <v>1.02992500667608</v>
       </c>
       <c r="L14">
-        <v>0.9266592466945205</v>
+        <v>1.007906314176563</v>
       </c>
       <c r="M14">
-        <v>0.919585084956724</v>
+        <v>1.018149699413077</v>
       </c>
       <c r="N14">
-        <v>0.9760389784041524</v>
+        <v>1.00639070711888</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8879518247503879</v>
+        <v>1.00082511055636</v>
       </c>
       <c r="D15">
-        <v>1.014993155727242</v>
+        <v>1.026372242422932</v>
       </c>
       <c r="E15">
-        <v>0.9109101428421914</v>
+        <v>1.004381208663192</v>
       </c>
       <c r="F15">
-        <v>0.9039981387377457</v>
+        <v>1.014703426196422</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039388991871996</v>
+        <v>1.029810544804343</v>
       </c>
       <c r="J15">
-        <v>0.9226774832786362</v>
+        <v>1.00761786737869</v>
       </c>
       <c r="K15">
-        <v>1.029567367059181</v>
+        <v>1.029959460199703</v>
       </c>
       <c r="L15">
-        <v>0.9276507146520371</v>
+        <v>1.008053275857377</v>
       </c>
       <c r="M15">
-        <v>0.920906382303827</v>
+        <v>1.018335158208146</v>
       </c>
       <c r="N15">
-        <v>0.9764136515750823</v>
+        <v>1.00644429617195</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8956954769609692</v>
+        <v>1.001957648761103</v>
       </c>
       <c r="D16">
-        <v>1.017223388181496</v>
+        <v>1.026687635658844</v>
       </c>
       <c r="E16">
-        <v>0.9172808643163204</v>
+        <v>1.005356776891426</v>
       </c>
       <c r="F16">
-        <v>0.9122939953072319</v>
+        <v>1.015900791021025</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040705775089608</v>
+        <v>1.029918063665843</v>
       </c>
       <c r="J16">
-        <v>0.9286670746755363</v>
+        <v>1.008517771451075</v>
       </c>
       <c r="K16">
-        <v>1.031252694158558</v>
+        <v>1.030158669591454</v>
       </c>
       <c r="L16">
-        <v>0.9332818880419932</v>
+        <v>1.008907186496333</v>
       </c>
       <c r="M16">
-        <v>0.9284085334587791</v>
+        <v>1.019411503552831</v>
       </c>
       <c r="N16">
-        <v>0.9785409984767061</v>
+        <v>1.006755469720891</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9003920658368549</v>
+        <v>1.002666649701268</v>
       </c>
       <c r="D17">
-        <v>1.018589219056088</v>
+        <v>1.02688454309132</v>
       </c>
       <c r="E17">
-        <v>0.9211512673699945</v>
+        <v>1.005967584161648</v>
       </c>
       <c r="F17">
-        <v>0.9173271407073148</v>
+        <v>1.016649254201919</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041503116036159</v>
+        <v>1.029984291590269</v>
       </c>
       <c r="J17">
-        <v>0.9323004106085405</v>
+        <v>1.009080843856665</v>
       </c>
       <c r="K17">
-        <v>1.032278977713049</v>
+        <v>1.030282461816951</v>
       </c>
       <c r="L17">
-        <v>0.936699091336839</v>
+        <v>1.009441541466629</v>
       </c>
       <c r="M17">
-        <v>0.9329585984649514</v>
+        <v>1.020083949019422</v>
       </c>
       <c r="N17">
-        <v>0.9798313142133404</v>
+        <v>1.00695001596823</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9030776850671544</v>
+        <v>1.003079697114114</v>
       </c>
       <c r="D18">
-        <v>1.019374471107071</v>
+        <v>1.026999060614117</v>
       </c>
       <c r="E18">
-        <v>0.9233666238211028</v>
+        <v>1.006323452459918</v>
       </c>
       <c r="F18">
-        <v>0.920205491163796</v>
+        <v>1.017084886232811</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04195833077077</v>
+        <v>1.030022483323912</v>
       </c>
       <c r="J18">
-        <v>0.934378148283793</v>
+        <v>1.00940877088749</v>
       </c>
       <c r="K18">
-        <v>1.03286695112941</v>
+        <v>1.030354247477751</v>
       </c>
       <c r="L18">
-        <v>0.9386536716995045</v>
+        <v>1.009752765649112</v>
       </c>
       <c r="M18">
-        <v>0.9355600747442453</v>
+        <v>1.020475202467008</v>
       </c>
       <c r="N18">
-        <v>0.9805691007764964</v>
+        <v>1.007063261207401</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9039846420627695</v>
+        <v>1.003220451351786</v>
       </c>
       <c r="D19">
-        <v>1.019640332230126</v>
+        <v>1.027038051269005</v>
       </c>
       <c r="E19">
-        <v>0.9241151221610433</v>
+        <v>1.006444726169426</v>
       </c>
       <c r="F19">
-        <v>0.9211775554995457</v>
+        <v>1.017233267795256</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042111915171748</v>
+        <v>1.030035431467616</v>
       </c>
       <c r="J19">
-        <v>0.9350798281385514</v>
+        <v>1.009520500665074</v>
       </c>
       <c r="K19">
-        <v>1.033065672952308</v>
+        <v>1.030378653264921</v>
       </c>
       <c r="L19">
-        <v>0.939313832104423</v>
+        <v>1.0098588082146</v>
       </c>
       <c r="M19">
-        <v>0.9364385254700361</v>
+        <v>1.020608445438216</v>
       </c>
       <c r="N19">
-        <v>0.9808182438671479</v>
+        <v>1.007101836036499</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.89989382057709</v>
+        <v>1.002590632581257</v>
       </c>
       <c r="D20">
-        <v>1.018443870185168</v>
+        <v>1.026863451465139</v>
       </c>
       <c r="E20">
-        <v>0.9207404396239686</v>
+        <v>1.005902092371679</v>
       </c>
       <c r="F20">
-        <v>0.9167931554324162</v>
+        <v>1.016569047949643</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041418598657535</v>
+        <v>1.029977231260185</v>
       </c>
       <c r="J20">
-        <v>0.9319149484298349</v>
+        <v>1.009020483735633</v>
       </c>
       <c r="K20">
-        <v>1.032169978175757</v>
+        <v>1.030269223554725</v>
       </c>
       <c r="L20">
-        <v>0.9363365125094638</v>
+        <v>1.009384257527853</v>
       </c>
       <c r="M20">
-        <v>0.9324759273588549</v>
+        <v>1.020011902738245</v>
       </c>
       <c r="N20">
-        <v>0.9796944323050657</v>
+        <v>1.006929166863467</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8859322694262277</v>
+        <v>1.000537092233659</v>
       </c>
       <c r="D21">
-        <v>1.014416167303476</v>
+        <v>1.026291869923291</v>
       </c>
       <c r="E21">
-        <v>0.9092508841018703</v>
+        <v>1.004133132933141</v>
       </c>
       <c r="F21">
-        <v>0.9018353746927992</v>
+        <v>1.014398576278381</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039045390439668</v>
+        <v>1.029782868183062</v>
       </c>
       <c r="J21">
-        <v>0.9211156767085231</v>
+        <v>1.007388920438185</v>
       </c>
       <c r="K21">
-        <v>1.029129473046343</v>
+        <v>1.029908516529494</v>
       </c>
       <c r="L21">
-        <v>0.9261827993448511</v>
+        <v>1.007836049046742</v>
       </c>
       <c r="M21">
-        <v>0.918950104210407</v>
+        <v>1.018061006023993</v>
       </c>
       <c r="N21">
-        <v>0.9758589192174038</v>
+        <v>1.006365081622595</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8765730724323856</v>
+        <v>0.999241277965408</v>
       </c>
       <c r="D22">
-        <v>1.011768840406293</v>
+        <v>1.025929472208775</v>
       </c>
       <c r="E22">
-        <v>0.9015737564737742</v>
+        <v>1.003017139724131</v>
       </c>
       <c r="F22">
-        <v>0.8918185969681631</v>
+        <v>1.013025339744179</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037453767512764</v>
+        <v>1.029656713477161</v>
       </c>
       <c r="J22">
-        <v>0.9138799541496871</v>
+        <v>1.006358428586246</v>
       </c>
       <c r="K22">
-        <v>1.027110704778365</v>
+        <v>1.029677935966401</v>
       </c>
       <c r="L22">
-        <v>0.9193843977360973</v>
+        <v>1.006858402552158</v>
       </c>
       <c r="M22">
-        <v>0.909887848775052</v>
+        <v>1.016825492230817</v>
       </c>
       <c r="N22">
-        <v>0.9732889974967539</v>
+        <v>1.006008300110387</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C23">
-        <v>0.8815949902337643</v>
+        <v>0.99992866429198</v>
       </c>
       <c r="D23">
-        <v>1.013183796164888</v>
+        <v>1.026121872608434</v>
       </c>
       <c r="E23">
-        <v>0.905690570579566</v>
+        <v>1.00360911319645</v>
       </c>
       <c r="F23">
-        <v>0.8971919963893724</v>
+        <v>1.013754139128842</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038307533695996</v>
+        <v>1.029723965280537</v>
       </c>
       <c r="J23">
-        <v>0.9177619914070388</v>
+        <v>1.006905160026701</v>
       </c>
       <c r="K23">
-        <v>1.028191656473791</v>
+        <v>1.029800530509603</v>
       </c>
       <c r="L23">
-        <v>0.923031331367857</v>
+        <v>1.007377077839923</v>
       </c>
       <c r="M23">
-        <v>0.9147495392623326</v>
+        <v>1.017481312933195</v>
       </c>
       <c r="N23">
-        <v>0.974667750011785</v>
+        <v>1.006197639724978</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9001191215059211</v>
+        <v>1.002624982992661</v>
       </c>
       <c r="D24">
-        <v>1.01850958223152</v>
+        <v>1.026872982899426</v>
       </c>
       <c r="E24">
-        <v>0.9209262046120492</v>
+        <v>1.005931686544309</v>
       </c>
       <c r="F24">
-        <v>0.9170346167967693</v>
+        <v>1.016605292587852</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041456818786016</v>
+        <v>1.029980422872689</v>
       </c>
       <c r="J24">
-        <v>0.9320892497901382</v>
+        <v>1.009047759431762</v>
       </c>
       <c r="K24">
-        <v>1.03221926314142</v>
+        <v>1.030275206654422</v>
       </c>
       <c r="L24">
-        <v>0.9365004649313058</v>
+        <v>1.009410143082756</v>
       </c>
       <c r="M24">
-        <v>0.9326941870241542</v>
+        <v>1.020044460356534</v>
       </c>
       <c r="N24">
-        <v>0.9797563289318284</v>
+        <v>1.006938588387941</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9195290802430466</v>
+        <v>1.005734343001851</v>
       </c>
       <c r="D25">
-        <v>1.024245693103664</v>
+        <v>1.027731452884222</v>
       </c>
       <c r="E25">
-        <v>0.9369708545889819</v>
+        <v>1.00861106955114</v>
       </c>
       <c r="F25">
-        <v>0.9378345326814133</v>
+        <v>1.019877342222893</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044727584175962</v>
+        <v>1.030260852055462</v>
       </c>
       <c r="J25">
-        <v>0.9471051378819078</v>
+        <v>1.011514435009111</v>
       </c>
       <c r="K25">
-        <v>1.036478933975667</v>
+        <v>1.030809557105707</v>
       </c>
       <c r="L25">
-        <v>0.9506333382840327</v>
+        <v>1.011751571290116</v>
       </c>
       <c r="M25">
-        <v>0.9514811755626703</v>
+        <v>1.022980767330699</v>
       </c>
       <c r="N25">
-        <v>0.9850860435595333</v>
+        <v>1.007789405759991</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_96/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_96/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008199406363829</v>
+        <v>0.9336978009428495</v>
       </c>
       <c r="D2">
-        <v>1.028405560243696</v>
+        <v>1.028511507186289</v>
       </c>
       <c r="E2">
-        <v>1.010736026748353</v>
+        <v>0.9487320670534531</v>
       </c>
       <c r="F2">
-        <v>1.022458468557891</v>
+        <v>0.9529976098013139</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030470695751452</v>
+        <v>1.047069076518258</v>
       </c>
       <c r="J2">
-        <v>1.013466621627579</v>
+        <v>0.958060135203335</v>
       </c>
       <c r="K2">
-        <v>1.031222471817723</v>
+        <v>1.039587423170598</v>
       </c>
       <c r="L2">
-        <v>1.013605317779909</v>
+        <v>0.9609550737394291</v>
       </c>
       <c r="M2">
-        <v>1.025292789681212</v>
+        <v>0.9651530687273797</v>
       </c>
       <c r="N2">
-        <v>1.00846097436131</v>
+        <v>0.9889688948810476</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009980992467433</v>
+        <v>0.9433613676909191</v>
       </c>
       <c r="D3">
-        <v>1.028888867513922</v>
+        <v>1.031448464432052</v>
       </c>
       <c r="E3">
-        <v>1.012272231573513</v>
+        <v>0.9567763714057845</v>
       </c>
       <c r="F3">
-        <v>1.024316379258391</v>
+        <v>0.9633173035729767</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030615051617936</v>
+        <v>1.048630313860508</v>
       </c>
       <c r="J3">
-        <v>1.01487556979671</v>
+        <v>0.9655249002301467</v>
       </c>
       <c r="K3">
-        <v>1.031514583961475</v>
+        <v>1.041694167804468</v>
       </c>
       <c r="L3">
-        <v>1.014943613307908</v>
+        <v>0.9679939038291779</v>
       </c>
       <c r="M3">
-        <v>1.026954501674668</v>
+        <v>0.9744421073743108</v>
       </c>
       <c r="N3">
-        <v>1.008944619702715</v>
+        <v>0.9916104348308719</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011130102647602</v>
+        <v>0.949361629674948</v>
       </c>
       <c r="D4">
-        <v>1.029198749604333</v>
+        <v>1.033279822943457</v>
       </c>
       <c r="E4">
-        <v>1.013263261496633</v>
+        <v>0.961780241675298</v>
       </c>
       <c r="F4">
-        <v>1.025511196988755</v>
+        <v>0.9697119218956675</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030704755590867</v>
+        <v>1.049580597156195</v>
       </c>
       <c r="J4">
-        <v>1.015783417638934</v>
+        <v>0.9701557834247118</v>
       </c>
       <c r="K4">
-        <v>1.031700036525147</v>
+        <v>1.042992519874209</v>
       </c>
       <c r="L4">
-        <v>1.015806118417662</v>
+        <v>0.9723629351468258</v>
       </c>
       <c r="M4">
-        <v>1.028021979428412</v>
+        <v>0.9801901858316059</v>
       </c>
       <c r="N4">
-        <v>1.009255767867436</v>
+        <v>0.9932468950470763</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011612322521877</v>
+        <v>0.9518282762930853</v>
       </c>
       <c r="D5">
-        <v>1.02932834109454</v>
+        <v>1.034033872369273</v>
       </c>
       <c r="E5">
-        <v>1.013679187650658</v>
+        <v>0.9638392593912828</v>
       </c>
       <c r="F5">
-        <v>1.026011750915302</v>
+        <v>0.9723371724838082</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030741580538863</v>
+        <v>1.049966307150036</v>
       </c>
       <c r="J5">
-        <v>1.016164173168042</v>
+        <v>0.972058387110999</v>
       </c>
       <c r="K5">
-        <v>1.031777147365479</v>
+        <v>1.043523432578682</v>
       </c>
       <c r="L5">
-        <v>1.016167900484134</v>
+        <v>0.9741585048847753</v>
       </c>
       <c r="M5">
-        <v>1.028468905192911</v>
+        <v>0.9825480274824957</v>
       </c>
       <c r="N5">
-        <v>1.009386148030789</v>
+        <v>0.9939186538704944</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011693239110816</v>
+        <v>0.9522392856226186</v>
       </c>
       <c r="D6">
-        <v>1.029350060007496</v>
+        <v>1.034159569272337</v>
       </c>
       <c r="E6">
-        <v>1.013748982692664</v>
+        <v>0.9641824580642909</v>
       </c>
       <c r="F6">
-        <v>1.026095694169603</v>
+        <v>0.9727743923021559</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030747711620971</v>
+        <v>1.050030276084952</v>
       </c>
       <c r="J6">
-        <v>1.016228051123685</v>
+        <v>0.9723753434982589</v>
       </c>
       <c r="K6">
-        <v>1.031790044559374</v>
+        <v>1.043611717097603</v>
       </c>
       <c r="L6">
-        <v>1.016228597880755</v>
+        <v>0.9744576620245875</v>
       </c>
       <c r="M6">
-        <v>1.028543838448504</v>
+        <v>0.9829405931492635</v>
       </c>
       <c r="N6">
-        <v>1.009408014567595</v>
+        <v>0.994030527343178</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011136549470888</v>
+        <v>0.9493948029244967</v>
       </c>
       <c r="D7">
-        <v>1.029200483896222</v>
+        <v>1.033289960039659</v>
       </c>
       <c r="E7">
-        <v>1.013268821863812</v>
+        <v>0.9618079252283498</v>
       </c>
       <c r="F7">
-        <v>1.025517892256369</v>
+        <v>0.9697472425793695</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030705251131012</v>
+        <v>1.049585804518256</v>
       </c>
       <c r="J7">
-        <v>1.01578850884401</v>
+        <v>0.9701813755504493</v>
       </c>
       <c r="K7">
-        <v>1.031701070237484</v>
+        <v>1.042999671799706</v>
       </c>
       <c r="L7">
-        <v>1.015810955751498</v>
+        <v>0.9723870854014904</v>
       </c>
       <c r="M7">
-        <v>1.028027958487598</v>
+        <v>0.9802219166974635</v>
       </c>
       <c r="N7">
-        <v>1.009257511682621</v>
+        <v>0.9932559333101265</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008802278088652</v>
+        <v>0.9370189538744373</v>
       </c>
       <c r="D8">
-        <v>1.028569485964282</v>
+        <v>1.029518793903781</v>
       </c>
       <c r="E8">
-        <v>1.011255823903459</v>
+        <v>0.9514946691884028</v>
       </c>
       <c r="F8">
-        <v>1.023087896141609</v>
+        <v>0.9565467842462163</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030520248513936</v>
+        <v>1.047609474290784</v>
       </c>
       <c r="J8">
-        <v>1.013943585339947</v>
+        <v>0.9606264041313919</v>
       </c>
       <c r="K8">
-        <v>1.031321930184477</v>
+        <v>1.040313225794272</v>
       </c>
       <c r="L8">
-        <v>1.014058326019438</v>
+        <v>0.963374389931287</v>
       </c>
       <c r="M8">
-        <v>1.025855989795965</v>
+        <v>0.9683494043709864</v>
       </c>
       <c r="N8">
-        <v>1.008624800890921</v>
+        <v>0.9898774695082415</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004659852234417</v>
+        <v>0.913031033182545</v>
       </c>
       <c r="D9">
-        <v>1.027435781528671</v>
+        <v>1.022309830452566</v>
       </c>
       <c r="E9">
-        <v>1.007685041029768</v>
+        <v>0.9315905986522414</v>
       </c>
       <c r="F9">
-        <v>1.018748626990426</v>
+        <v>0.930872788202337</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030165872476062</v>
+        <v>1.043638625673358</v>
       </c>
       <c r="J9">
-        <v>1.010662554869645</v>
+        <v>0.9420785908708299</v>
       </c>
       <c r="K9">
-        <v>1.030626552345071</v>
+        <v>1.035051026832386</v>
       </c>
       <c r="L9">
-        <v>1.010942839536329</v>
+        <v>0.9459004836000193</v>
       </c>
       <c r="M9">
-        <v>1.021968527401275</v>
+        <v>0.9451966849888191</v>
       </c>
       <c r="N9">
-        <v>1.007495848148559</v>
+        <v>0.9833026491293695</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001877456530309</v>
+        <v>0.8951571475547542</v>
       </c>
       <c r="D10">
-        <v>1.026665337858934</v>
+        <v>1.017067454856342</v>
       </c>
       <c r="E10">
-        <v>1.005287694533441</v>
+        <v>0.916837544689471</v>
       </c>
       <c r="F10">
-        <v>1.015816080579863</v>
+        <v>0.9117171500504049</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029910520004136</v>
+        <v>1.040614301432974</v>
       </c>
       <c r="J10">
-        <v>1.008454070290377</v>
+        <v>0.9282506395328299</v>
       </c>
       <c r="K10">
-        <v>1.030144623004911</v>
+        <v>1.031135240440385</v>
       </c>
       <c r="L10">
-        <v>1.008846737143951</v>
+        <v>0.9328902871595325</v>
       </c>
       <c r="M10">
-        <v>1.019335378657959</v>
+        <v>0.9278869737489238</v>
       </c>
       <c r="N10">
-        <v>1.006733452815206</v>
+        <v>0.9783930992608851</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000667453607731</v>
+        <v>0.8868489687927846</v>
       </c>
       <c r="D11">
-        <v>1.026328255826409</v>
+        <v>1.014677823618051</v>
       </c>
       <c r="E11">
-        <v>1.004245414529502</v>
+        <v>0.9100039249218744</v>
       </c>
       <c r="F11">
-        <v>1.014536573055618</v>
+        <v>0.9028170290244061</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029795411600501</v>
+        <v>1.039201356714335</v>
       </c>
       <c r="J11">
-        <v>1.007492549719182</v>
+        <v>0.9218245813218446</v>
       </c>
       <c r="K11">
-        <v>1.029931588405758</v>
+        <v>1.029328146376749</v>
       </c>
       <c r="L11">
-        <v>1.007934372454489</v>
+        <v>0.9268490645331287</v>
       </c>
       <c r="M11">
-        <v>1.018185112481438</v>
+        <v>0.9198380568021278</v>
       </c>
       <c r="N11">
-        <v>1.006400939250378</v>
+        <v>0.9761107124874179</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000217199172281</v>
+        <v>0.883664101209051</v>
       </c>
       <c r="D12">
-        <v>1.026202526307366</v>
+        <v>1.01377053201931</v>
       </c>
       <c r="E12">
-        <v>1.003857613917235</v>
+        <v>0.9073884841438706</v>
       </c>
       <c r="F12">
-        <v>1.01405982696987</v>
+        <v>0.8994068670913909</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029751972418833</v>
+        <v>1.038659500838081</v>
       </c>
       <c r="J12">
-        <v>1.00713459377455</v>
+        <v>0.9193617830008798</v>
       </c>
       <c r="K12">
-        <v>1.029851802908561</v>
+        <v>1.02863858166424</v>
       </c>
       <c r="L12">
-        <v>1.007594750594229</v>
+        <v>0.9245345575486693</v>
       </c>
       <c r="M12">
-        <v>1.017756314669423</v>
+        <v>0.9167532706169268</v>
       </c>
       <c r="N12">
-        <v>1.006277063263189</v>
+        <v>0.9752359630053943</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000313817101804</v>
+        <v>0.8843519885984045</v>
       </c>
       <c r="D13">
-        <v>1.026229519352788</v>
+        <v>1.013966070541653</v>
       </c>
       <c r="E13">
-        <v>1.003940828241598</v>
+        <v>0.9079531850786519</v>
       </c>
       <c r="F13">
-        <v>1.014162157977488</v>
+        <v>0.9001433229755267</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029761321183172</v>
+        <v>1.038776528604669</v>
       </c>
       <c r="J13">
-        <v>1.007211413237316</v>
+        <v>0.9198936810778906</v>
       </c>
       <c r="K13">
-        <v>1.029868946816384</v>
+        <v>1.028787353851684</v>
       </c>
       <c r="L13">
-        <v>1.007667633901541</v>
+        <v>0.9250343910947959</v>
       </c>
       <c r="M13">
-        <v>1.017848363183346</v>
+        <v>0.9174194897717413</v>
       </c>
       <c r="N13">
-        <v>1.006303651732442</v>
+        <v>0.9754248843395235</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000630252002251</v>
+        <v>0.8865878117162499</v>
       </c>
       <c r="D14">
-        <v>1.026317873640243</v>
+        <v>1.014603239037801</v>
       </c>
       <c r="E14">
-        <v>1.004213372206165</v>
+        <v>0.9097893726379065</v>
       </c>
       <c r="F14">
-        <v>1.014497195404279</v>
+        <v>0.9025373585110756</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029791834838225</v>
+        <v>1.039156923802152</v>
       </c>
       <c r="J14">
-        <v>1.007462977485511</v>
+        <v>0.9216226195714412</v>
       </c>
       <c r="K14">
-        <v>1.02992500667608</v>
+        <v>1.029271530897889</v>
       </c>
       <c r="L14">
-        <v>1.007906314176563</v>
+        <v>0.92665924669452</v>
       </c>
       <c r="M14">
-        <v>1.018149699413077</v>
+        <v>0.9195850849567226</v>
       </c>
       <c r="N14">
-        <v>1.00639070711888</v>
+        <v>0.9760389784041523</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00082511055636</v>
+        <v>0.887951824750388</v>
       </c>
       <c r="D15">
-        <v>1.026372242422932</v>
+        <v>1.014993155727242</v>
       </c>
       <c r="E15">
-        <v>1.004381208663192</v>
+        <v>0.9109101428421912</v>
       </c>
       <c r="F15">
-        <v>1.014703426196422</v>
+        <v>0.9039981387377457</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029810544804343</v>
+        <v>1.039388991871996</v>
       </c>
       <c r="J15">
-        <v>1.00761786737869</v>
+        <v>0.9226774832786363</v>
       </c>
       <c r="K15">
-        <v>1.029959460199703</v>
+        <v>1.029567367059181</v>
       </c>
       <c r="L15">
-        <v>1.008053275857377</v>
+        <v>0.927650714652037</v>
       </c>
       <c r="M15">
-        <v>1.018335158208146</v>
+        <v>0.920906382303827</v>
       </c>
       <c r="N15">
-        <v>1.00644429617195</v>
+        <v>0.9764136515750823</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001957648761103</v>
+        <v>0.8956954769609679</v>
       </c>
       <c r="D16">
-        <v>1.026687635658844</v>
+        <v>1.017223388181496</v>
       </c>
       <c r="E16">
-        <v>1.005356776891426</v>
+        <v>0.9172808643163187</v>
       </c>
       <c r="F16">
-        <v>1.015900791021025</v>
+        <v>0.9122939953072308</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029918063665843</v>
+        <v>1.040705775089608</v>
       </c>
       <c r="J16">
-        <v>1.008517771451075</v>
+        <v>0.9286670746755349</v>
       </c>
       <c r="K16">
-        <v>1.030158669591454</v>
+        <v>1.031252694158558</v>
       </c>
       <c r="L16">
-        <v>1.008907186496333</v>
+        <v>0.9332818880419919</v>
       </c>
       <c r="M16">
-        <v>1.019411503552831</v>
+        <v>0.9284085334587783</v>
       </c>
       <c r="N16">
-        <v>1.006755469720891</v>
+        <v>0.9785409984767054</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002666649701268</v>
+        <v>0.9003920658368532</v>
       </c>
       <c r="D17">
-        <v>1.02688454309132</v>
+        <v>1.018589219056088</v>
       </c>
       <c r="E17">
-        <v>1.005967584161648</v>
+        <v>0.9211512673699929</v>
       </c>
       <c r="F17">
-        <v>1.016649254201919</v>
+        <v>0.9173271407073134</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029984291590269</v>
+        <v>1.041503116036158</v>
       </c>
       <c r="J17">
-        <v>1.009080843856665</v>
+        <v>0.9323004106085391</v>
       </c>
       <c r="K17">
-        <v>1.030282461816951</v>
+        <v>1.032278977713049</v>
       </c>
       <c r="L17">
-        <v>1.009441541466629</v>
+        <v>0.9366990913368374</v>
       </c>
       <c r="M17">
-        <v>1.020083949019422</v>
+        <v>0.9329585984649503</v>
       </c>
       <c r="N17">
-        <v>1.00695001596823</v>
+        <v>0.9798313142133399</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003079697114114</v>
+        <v>0.9030776850671558</v>
       </c>
       <c r="D18">
-        <v>1.026999060614117</v>
+        <v>1.019374471107071</v>
       </c>
       <c r="E18">
-        <v>1.006323452459918</v>
+        <v>0.9233666238211041</v>
       </c>
       <c r="F18">
-        <v>1.017084886232811</v>
+        <v>0.920205491163797</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030022483323912</v>
+        <v>1.04195833077077</v>
       </c>
       <c r="J18">
-        <v>1.00940877088749</v>
+        <v>0.9343781482837944</v>
       </c>
       <c r="K18">
-        <v>1.030354247477751</v>
+        <v>1.03286695112941</v>
       </c>
       <c r="L18">
-        <v>1.009752765649112</v>
+        <v>0.9386536716995059</v>
       </c>
       <c r="M18">
-        <v>1.020475202467008</v>
+        <v>0.9355600747442461</v>
       </c>
       <c r="N18">
-        <v>1.007063261207401</v>
+        <v>0.9805691007764971</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003220451351786</v>
+        <v>0.9039846420627696</v>
       </c>
       <c r="D19">
-        <v>1.027038051269005</v>
+        <v>1.019640332230126</v>
       </c>
       <c r="E19">
-        <v>1.006444726169426</v>
+        <v>0.9241151221610434</v>
       </c>
       <c r="F19">
-        <v>1.017233267795256</v>
+        <v>0.9211775554995459</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030035431467616</v>
+        <v>1.042111915171748</v>
       </c>
       <c r="J19">
-        <v>1.009520500665074</v>
+        <v>0.9350798281385515</v>
       </c>
       <c r="K19">
-        <v>1.030378653264921</v>
+        <v>1.033065672952308</v>
       </c>
       <c r="L19">
-        <v>1.0098588082146</v>
+        <v>0.939313832104423</v>
       </c>
       <c r="M19">
-        <v>1.020608445438216</v>
+        <v>0.9364385254700365</v>
       </c>
       <c r="N19">
-        <v>1.007101836036499</v>
+        <v>0.9808182438671479</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002590632581257</v>
+        <v>0.8998938205770897</v>
       </c>
       <c r="D20">
-        <v>1.026863451465139</v>
+        <v>1.018443870185169</v>
       </c>
       <c r="E20">
-        <v>1.005902092371679</v>
+        <v>0.9207404396239685</v>
       </c>
       <c r="F20">
-        <v>1.016569047949643</v>
+        <v>0.9167931554324162</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029977231260185</v>
+        <v>1.041418598657535</v>
       </c>
       <c r="J20">
-        <v>1.009020483735633</v>
+        <v>0.9319149484298348</v>
       </c>
       <c r="K20">
-        <v>1.030269223554725</v>
+        <v>1.032169978175757</v>
       </c>
       <c r="L20">
-        <v>1.009384257527853</v>
+        <v>0.9363365125094637</v>
       </c>
       <c r="M20">
-        <v>1.020011902738245</v>
+        <v>0.9324759273588549</v>
       </c>
       <c r="N20">
-        <v>1.006929166863467</v>
+        <v>0.9796944323050656</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000537092233659</v>
+        <v>0.8859322694262278</v>
       </c>
       <c r="D21">
-        <v>1.026291869923291</v>
+        <v>1.014416167303477</v>
       </c>
       <c r="E21">
-        <v>1.004133132933141</v>
+        <v>0.9092508841018704</v>
       </c>
       <c r="F21">
-        <v>1.014398576278381</v>
+        <v>0.9018353746927988</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029782868183062</v>
+        <v>1.039045390439668</v>
       </c>
       <c r="J21">
-        <v>1.007388920438185</v>
+        <v>0.9211156767085231</v>
       </c>
       <c r="K21">
-        <v>1.029908516529494</v>
+        <v>1.029129473046343</v>
       </c>
       <c r="L21">
-        <v>1.007836049046742</v>
+        <v>0.9261827993448513</v>
       </c>
       <c r="M21">
-        <v>1.018061006023993</v>
+        <v>0.9189501042104068</v>
       </c>
       <c r="N21">
-        <v>1.006365081622595</v>
+        <v>0.9758589192174038</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.999241277965408</v>
+        <v>0.8765730724323861</v>
       </c>
       <c r="D22">
-        <v>1.025929472208775</v>
+        <v>1.011768840406294</v>
       </c>
       <c r="E22">
-        <v>1.003017139724131</v>
+        <v>0.901573756473775</v>
       </c>
       <c r="F22">
-        <v>1.013025339744179</v>
+        <v>0.891818596968164</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029656713477161</v>
+        <v>1.037453767512764</v>
       </c>
       <c r="J22">
-        <v>1.006358428586246</v>
+        <v>0.9138799541496876</v>
       </c>
       <c r="K22">
-        <v>1.029677935966401</v>
+        <v>1.027110704778365</v>
       </c>
       <c r="L22">
-        <v>1.006858402552158</v>
+        <v>0.9193843977360978</v>
       </c>
       <c r="M22">
-        <v>1.016825492230817</v>
+        <v>0.9098878487750528</v>
       </c>
       <c r="N22">
-        <v>1.006008300110387</v>
+        <v>0.973288997496754</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.99992866429198</v>
+        <v>0.8815949902337648</v>
       </c>
       <c r="D23">
-        <v>1.026121872608434</v>
+        <v>1.013183796164888</v>
       </c>
       <c r="E23">
-        <v>1.00360911319645</v>
+        <v>0.905690570579566</v>
       </c>
       <c r="F23">
-        <v>1.013754139128842</v>
+        <v>0.8971919963893727</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029723965280537</v>
+        <v>1.038307533695996</v>
       </c>
       <c r="J23">
-        <v>1.006905160026701</v>
+        <v>0.9177619914070391</v>
       </c>
       <c r="K23">
-        <v>1.029800530509603</v>
+        <v>1.028191656473791</v>
       </c>
       <c r="L23">
-        <v>1.007377077839923</v>
+        <v>0.9230313313678571</v>
       </c>
       <c r="M23">
-        <v>1.017481312933195</v>
+        <v>0.9147495392623329</v>
       </c>
       <c r="N23">
-        <v>1.006197639724978</v>
+        <v>0.9746677500117851</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002624982992661</v>
+        <v>0.9001191215059211</v>
       </c>
       <c r="D24">
-        <v>1.026872982899426</v>
+        <v>1.01850958223152</v>
       </c>
       <c r="E24">
-        <v>1.005931686544309</v>
+        <v>0.9209262046120491</v>
       </c>
       <c r="F24">
-        <v>1.016605292587852</v>
+        <v>0.9170346167967697</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029980422872689</v>
+        <v>1.041456818786016</v>
       </c>
       <c r="J24">
-        <v>1.009047759431762</v>
+        <v>0.9320892497901379</v>
       </c>
       <c r="K24">
-        <v>1.030275206654422</v>
+        <v>1.03221926314142</v>
       </c>
       <c r="L24">
-        <v>1.009410143082756</v>
+        <v>0.9365004649313053</v>
       </c>
       <c r="M24">
-        <v>1.020044460356534</v>
+        <v>0.9326941870241544</v>
       </c>
       <c r="N24">
-        <v>1.006938588387941</v>
+        <v>0.9797563289318284</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005734343001851</v>
+        <v>0.9195290802430469</v>
       </c>
       <c r="D25">
-        <v>1.027731452884222</v>
+        <v>1.024245693103663</v>
       </c>
       <c r="E25">
-        <v>1.00861106955114</v>
+        <v>0.936970854588982</v>
       </c>
       <c r="F25">
-        <v>1.019877342222893</v>
+        <v>0.9378345326814138</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030260852055462</v>
+        <v>1.044727584175962</v>
       </c>
       <c r="J25">
-        <v>1.011514435009111</v>
+        <v>0.9471051378819081</v>
       </c>
       <c r="K25">
-        <v>1.030809557105707</v>
+        <v>1.036478933975667</v>
       </c>
       <c r="L25">
-        <v>1.011751571290116</v>
+        <v>0.9506333382840331</v>
       </c>
       <c r="M25">
-        <v>1.022980767330699</v>
+        <v>0.9514811755626706</v>
       </c>
       <c r="N25">
-        <v>1.007789405759991</v>
+        <v>0.9850860435595336</v>
       </c>
     </row>
   </sheetData>
